--- a/hw/Lesson_13_Homework_Data.xlsx
+++ b/hw/Lesson_13_Homework_Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="18195" windowHeight="9270"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="16">
   <si>
     <t>period</t>
   </si>
@@ -58,13 +58,26 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,9 +106,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -104,11 +123,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -187,7 +201,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -222,7 +235,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -398,19 +410,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection sqref="A1:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,8 +438,14 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -443,8 +461,14 @@
       <c r="E2" s="1">
         <v>174</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -460,8 +484,14 @@
       <c r="E3" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -477,8 +507,14 @@
       <c r="E4" s="1">
         <v>192</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -494,8 +530,14 @@
       <c r="E5" s="1">
         <v>194</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -511,8 +553,14 @@
       <c r="E6" s="1">
         <v>184</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -528,8 +576,14 @@
       <c r="E7" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -545,8 +599,14 @@
       <c r="E8" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -562,8 +622,14 @@
       <c r="E9" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -579,8 +645,14 @@
       <c r="E10" s="1">
         <v>206</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -596,8 +668,14 @@
       <c r="E11" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -613,8 +691,14 @@
       <c r="E12" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -630,8 +714,14 @@
       <c r="E13" s="1">
         <v>210</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -647,8 +737,14 @@
       <c r="E14" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -664,8 +760,14 @@
       <c r="E15" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -681,8 +783,14 @@
       <c r="E16" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -698,8 +806,14 @@
       <c r="E17" s="1">
         <v>208</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -715,8 +829,14 @@
       <c r="E18" s="1">
         <v>192</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -732,8 +852,14 @@
       <c r="E19" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -749,8 +875,14 @@
       <c r="E20" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -766,8 +898,14 @@
       <c r="E21" s="1">
         <v>154</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -783,8 +921,14 @@
       <c r="E22" s="1">
         <v>220</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -800,8 +944,14 @@
       <c r="E23" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -817,8 +967,14 @@
       <c r="E24" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -834,8 +990,14 @@
       <c r="E25" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -851,8 +1013,14 @@
       <c r="E26" s="1">
         <v>164</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -868,8 +1036,14 @@
       <c r="E27" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -885,8 +1059,14 @@
       <c r="E28" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -902,8 +1082,14 @@
       <c r="E29" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -919,8 +1105,14 @@
       <c r="E30" s="1">
         <v>176</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>3</v>
       </c>
@@ -936,8 +1128,14 @@
       <c r="E31" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>3</v>
       </c>
@@ -953,8 +1151,14 @@
       <c r="E32" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>3</v>
       </c>
@@ -970,8 +1174,14 @@
       <c r="E33" s="1">
         <v>166</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -987,8 +1197,14 @@
       <c r="E34" s="1">
         <v>210</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -1004,8 +1220,14 @@
       <c r="E35" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -1021,8 +1243,14 @@
       <c r="E36" s="1">
         <v>208</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -1037,6 +1265,12 @@
       </c>
       <c r="E37" s="1">
         <v>226</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1046,24 +1280,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
